--- a/biology/Zoologie/Iole_(oiseau)/Iole_(oiseau).xlsx
+++ b/biology/Zoologie/Iole_(oiseau)/Iole_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iole est un genre de passereaux de la famille des Pycnonotidae. Il regroupe six espèces de bulbuls.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre se trouve à l'état naturel en Asie du Sud[3] et du Sud-Est[3],[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre se trouve à l'état naturel en Asie du Sud et du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste alphabétique des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2020)[1] (ordre phylogénétique) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2020) (ordre phylogénétique) :
 Iole finschii (Salvadori, 1871) - ?
 Iole palawanensis (Tweeddale, 1878) — Bulbul aux yeux d'or, Bulbul de Palawan
 Iole viridescens Blyth, 1867 — Bulbul birman, Bulbul olive
